--- a/data/data_output/spine_model_settings_source.xlsx
+++ b/data/data_output/spine_model_settings_source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oliver\Documents\RUB\02_Promotion\Aggregierung von erneuerbaren Potentialen und Energieinfrastruktur\StEAM_h2_transport v1_0\data\data_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46345BAA-888A-4811-9C16-C47C9D3BCC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6679F9-F404-4216-B8EF-F23A7E7F3089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7140" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4725" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Table" sheetId="13" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="52">
   <si>
     <t>object_class</t>
   </si>
@@ -167,9 +167,6 @@
     <t>stochastic_structure__stochastic_scenario</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>1D</t>
   </si>
   <si>
@@ -186,6 +183,12 @@
   </si>
   <si>
     <t>taxes</t>
+  </si>
+  <si>
+    <t>connections_invested</t>
+  </si>
+  <si>
+    <t>connections_invested_available</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
   <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:K22"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -644,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
@@ -760,7 +763,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>42</v>
@@ -795,7 +798,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
         <v>40</v>
@@ -827,10 +830,10 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
       </c>
       <c r="G9" t="s">
         <v>43</v>
@@ -885,7 +888,7 @@
         <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R11" s="1"/>
       <c r="U11" s="2"/>
@@ -1043,7 +1046,7 @@
         <v>31</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R19" s="1"/>
       <c r="U19" s="2"/>
@@ -1083,7 +1086,7 @@
         <v>31</v>
       </c>
       <c r="K21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R21" s="1"/>
       <c r="U21" s="2"/>
@@ -1103,16 +1106,46 @@
         <v>31</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R22" s="1"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
     </row>
     <row r="23" spans="7:22" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" t="s">
+        <v>50</v>
+      </c>
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="7:22" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" t="s">
+        <v>51</v>
+      </c>
       <c r="R24" s="1"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>

--- a/data/data_output/spine_model_settings_source.xlsx
+++ b/data/data_output/spine_model_settings_source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oliver\Documents\RUB\02_Promotion\Aggregierung von erneuerbaren Potentialen und Energieinfrastruktur\StEAM_h2_transport v1_0\data\data_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6679F9-F404-4216-B8EF-F23A7E7F3089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B2EA8-CE60-4942-905F-4FF09969F7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4725" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-4725" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Table" sheetId="13" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="54">
   <si>
     <t>object_class</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>connections_invested_available</t>
+  </si>
+  <si>
+    <t>alternative_names</t>
+  </si>
+  <si>
+    <t>20230728_13_30</t>
   </si>
 </sst>
 </file>
@@ -545,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984C4DA6-54B8-4D29-9167-09CCDFE92DDB}">
-  <dimension ref="A1:V179"/>
+  <dimension ref="A1:W179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,19 +563,19 @@
     <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="25.453125" customWidth="1"/>
-    <col min="7" max="7" width="43.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.81640625" customWidth="1"/>
-    <col min="20" max="20" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.36328125" customWidth="1"/>
-    <col min="43" max="43" width="12.1796875" customWidth="1"/>
+    <col min="5" max="7" width="25.453125" customWidth="1"/>
+    <col min="8" max="8" width="43.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.81640625" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.36328125" customWidth="1"/>
+    <col min="44" max="44" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,28 +589,31 @@
         <v>33</v>
       </c>
       <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -617,26 +626,26 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="U2" s="2"/>
+      <c r="S2" s="1"/>
       <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -649,78 +658,78 @@
       <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="U3" s="2"/>
+      <c r="S3" s="1"/>
       <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="U4" s="2"/>
+      <c r="S4" s="1"/>
       <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>3</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="U5" s="2"/>
+      <c r="S5" s="1"/>
       <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -731,28 +740,31 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>8</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="U6" s="2"/>
+      <c r="S6" s="1"/>
       <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -763,28 +775,31 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>3</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="U7" s="2"/>
+      <c r="S7" s="1"/>
       <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -795,31 +810,34 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>3</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>17</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="U8" s="2"/>
+      <c r="S8" s="1"/>
       <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -830,1072 +848,1075 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>44</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>43</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>13</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>10</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="1"/>
-      <c r="U9" s="2"/>
+      <c r="S9" s="1"/>
       <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="G10" t="s">
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
         <v>43</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>10</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="1"/>
-      <c r="U10" s="2"/>
+      <c r="S10" s="1"/>
       <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="G11" t="s">
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H11" t="s">
         <v>41</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>8</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>9</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>31</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>48</v>
       </c>
-      <c r="R11" s="1"/>
-      <c r="U11" s="2"/>
+      <c r="S11" s="1"/>
       <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="G12" t="s">
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
         <v>41</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>8</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>9</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>31</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="G13" t="s">
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
         <v>41</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>8</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>9</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>31</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>23</v>
       </c>
-      <c r="R13" s="1"/>
-      <c r="U13" s="2"/>
+      <c r="S13" s="1"/>
       <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="G14" t="s">
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
         <v>41</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>8</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>9</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>31</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="U14" s="2"/>
+      <c r="S14" s="1"/>
       <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="G15" t="s">
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
         <v>41</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>8</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>9</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>31</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>25</v>
       </c>
-      <c r="R15" s="1"/>
-      <c r="U15" s="2"/>
+      <c r="S15" s="1"/>
       <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="G16" t="s">
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
         <v>41</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>8</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>9</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>31</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="1"/>
-      <c r="U16" s="2"/>
+      <c r="S16" s="1"/>
       <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="G17" t="s">
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="H17" t="s">
         <v>41</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>8</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>9</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>31</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="1"/>
-      <c r="U17" s="2"/>
+      <c r="S17" s="1"/>
       <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="G18" t="s">
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="H18" t="s">
         <v>41</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>8</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>9</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>31</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="1"/>
-      <c r="U18" s="2"/>
+      <c r="S18" s="1"/>
       <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="G19" t="s">
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="H19" t="s">
         <v>41</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>8</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>9</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>31</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="1"/>
-      <c r="U19" s="2"/>
+      <c r="S19" s="1"/>
       <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="G20" t="s">
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="H20" t="s">
         <v>41</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>8</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>9</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>31</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>29</v>
       </c>
-      <c r="R20" s="1"/>
-      <c r="U20" s="2"/>
+      <c r="S20" s="1"/>
       <c r="V20" s="2"/>
-    </row>
-    <row r="21" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="G21" t="s">
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="H21" t="s">
         <v>41</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>8</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>9</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>31</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>47</v>
       </c>
-      <c r="R21" s="1"/>
-      <c r="U21" s="2"/>
+      <c r="S21" s="1"/>
       <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="G22" t="s">
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="H22" t="s">
         <v>41</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>8</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>9</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>31</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>46</v>
       </c>
-      <c r="R22" s="1"/>
-      <c r="U22" s="2"/>
+      <c r="S22" s="1"/>
       <c r="V22" s="2"/>
-    </row>
-    <row r="23" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="G23" t="s">
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="H23" t="s">
         <v>41</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>8</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>9</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>31</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>50</v>
       </c>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="G24" t="s">
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="H24" t="s">
         <v>41</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>8</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>9</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>31</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>51</v>
       </c>
-      <c r="R24" s="1"/>
-      <c r="U24" s="2"/>
+      <c r="S24" s="1"/>
       <c r="V24" s="2"/>
-    </row>
-    <row r="25" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="R25" s="1"/>
-      <c r="U25" s="2"/>
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="S25" s="1"/>
       <c r="V25" s="2"/>
-    </row>
-    <row r="26" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="R26" s="1"/>
-      <c r="U26" s="2"/>
+      <c r="W25" s="2"/>
+    </row>
+    <row r="26" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="S26" s="1"/>
       <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="R27" s="1"/>
-      <c r="U27" s="2"/>
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="S27" s="1"/>
       <c r="V27" s="2"/>
-    </row>
-    <row r="28" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="R28" s="1"/>
-      <c r="U28" s="2"/>
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="S28" s="1"/>
       <c r="V28" s="2"/>
-    </row>
-    <row r="29" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="R29" s="1"/>
-      <c r="U29" s="2"/>
+      <c r="W28" s="2"/>
+    </row>
+    <row r="29" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="S29" s="1"/>
       <c r="V29" s="2"/>
-    </row>
-    <row r="30" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="R30" s="1"/>
-      <c r="U30" s="2"/>
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="S30" s="1"/>
       <c r="V30" s="2"/>
-    </row>
-    <row r="31" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="R31" s="1"/>
-      <c r="U31" s="2"/>
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="S31" s="1"/>
       <c r="V31" s="2"/>
-    </row>
-    <row r="32" spans="7:22" x14ac:dyDescent="0.35">
-      <c r="R32" s="1"/>
-      <c r="U32" s="2"/>
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="S32" s="1"/>
       <c r="V32" s="2"/>
-    </row>
-    <row r="33" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R33" s="1"/>
-      <c r="U33" s="2"/>
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S33" s="1"/>
       <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R35" s="1"/>
-      <c r="U35" s="2"/>
+      <c r="W33" s="2"/>
+    </row>
+    <row r="34" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S35" s="1"/>
       <c r="V35" s="2"/>
-    </row>
-    <row r="36" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R36" s="1"/>
-      <c r="U36" s="2"/>
+      <c r="W35" s="2"/>
+    </row>
+    <row r="36" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S36" s="1"/>
       <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R37" s="1"/>
-      <c r="U37" s="2"/>
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S37" s="1"/>
       <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R38" s="1"/>
-      <c r="U38" s="2"/>
+      <c r="W37" s="2"/>
+    </row>
+    <row r="38" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S38" s="1"/>
       <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R39" s="1"/>
-      <c r="U39" s="2"/>
+      <c r="W38" s="2"/>
+    </row>
+    <row r="39" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S39" s="1"/>
       <c r="V39" s="2"/>
-    </row>
-    <row r="40" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R40" s="1"/>
-      <c r="U40" s="2"/>
+      <c r="W39" s="2"/>
+    </row>
+    <row r="40" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S40" s="1"/>
       <c r="V40" s="2"/>
-    </row>
-    <row r="41" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R41" s="1"/>
-      <c r="U41" s="2"/>
+      <c r="W40" s="2"/>
+    </row>
+    <row r="41" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S41" s="1"/>
       <c r="V41" s="2"/>
-    </row>
-    <row r="42" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R42" s="1"/>
-      <c r="U42" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S42" s="1"/>
       <c r="V42" s="2"/>
-    </row>
-    <row r="43" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R43" s="1"/>
-      <c r="U43" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S43" s="1"/>
       <c r="V43" s="2"/>
-    </row>
-    <row r="44" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R44" s="1"/>
-      <c r="U44" s="2"/>
+      <c r="W43" s="2"/>
+    </row>
+    <row r="44" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S44" s="1"/>
       <c r="V44" s="2"/>
-    </row>
-    <row r="45" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R45" s="1"/>
-    </row>
-    <row r="46" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R46" s="1"/>
-      <c r="U46" s="2"/>
+      <c r="W44" s="2"/>
+    </row>
+    <row r="45" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S46" s="1"/>
       <c r="V46" s="2"/>
-    </row>
-    <row r="47" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R47" s="1"/>
-      <c r="U47" s="2"/>
+      <c r="W46" s="2"/>
+    </row>
+    <row r="47" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S47" s="1"/>
       <c r="V47" s="2"/>
-    </row>
-    <row r="48" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R48" s="1"/>
-      <c r="U48" s="2"/>
+      <c r="W47" s="2"/>
+    </row>
+    <row r="48" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S48" s="1"/>
       <c r="V48" s="2"/>
-    </row>
-    <row r="49" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R49" s="1"/>
-      <c r="U49" s="2"/>
+      <c r="W48" s="2"/>
+    </row>
+    <row r="49" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S49" s="1"/>
       <c r="V49" s="2"/>
-    </row>
-    <row r="50" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R50" s="1"/>
-      <c r="U50" s="2"/>
+      <c r="W49" s="2"/>
+    </row>
+    <row r="50" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S50" s="1"/>
       <c r="V50" s="2"/>
-    </row>
-    <row r="51" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R51" s="1"/>
-      <c r="U51" s="2"/>
+      <c r="W50" s="2"/>
+    </row>
+    <row r="51" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S51" s="1"/>
       <c r="V51" s="2"/>
-    </row>
-    <row r="52" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R52" s="1"/>
-      <c r="U52" s="2"/>
+      <c r="W51" s="2"/>
+    </row>
+    <row r="52" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S52" s="1"/>
       <c r="V52" s="2"/>
-    </row>
-    <row r="53" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R53" s="1"/>
-      <c r="U53" s="2"/>
+      <c r="W52" s="2"/>
+    </row>
+    <row r="53" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S53" s="1"/>
       <c r="V53" s="2"/>
-    </row>
-    <row r="54" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R54" s="1"/>
-      <c r="U54" s="2"/>
+      <c r="W53" s="2"/>
+    </row>
+    <row r="54" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S54" s="1"/>
       <c r="V54" s="2"/>
-    </row>
-    <row r="55" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R55" s="1"/>
-      <c r="U55" s="2"/>
+      <c r="W54" s="2"/>
+    </row>
+    <row r="55" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S55" s="1"/>
       <c r="V55" s="2"/>
-    </row>
-    <row r="56" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R56" s="1"/>
-    </row>
-    <row r="57" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R57" s="1"/>
-      <c r="U57" s="2"/>
+      <c r="W55" s="2"/>
+    </row>
+    <row r="56" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S56" s="1"/>
+    </row>
+    <row r="57" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S57" s="1"/>
       <c r="V57" s="2"/>
-    </row>
-    <row r="58" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R58" s="1"/>
-      <c r="U58" s="2"/>
+      <c r="W57" s="2"/>
+    </row>
+    <row r="58" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S58" s="1"/>
       <c r="V58" s="2"/>
-    </row>
-    <row r="59" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R59" s="1"/>
-      <c r="U59" s="2"/>
+      <c r="W58" s="2"/>
+    </row>
+    <row r="59" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S59" s="1"/>
       <c r="V59" s="2"/>
-    </row>
-    <row r="60" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R60" s="1"/>
-      <c r="U60" s="2"/>
+      <c r="W59" s="2"/>
+    </row>
+    <row r="60" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S60" s="1"/>
       <c r="V60" s="2"/>
-    </row>
-    <row r="61" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R61" s="1"/>
-      <c r="U61" s="2"/>
+      <c r="W60" s="2"/>
+    </row>
+    <row r="61" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S61" s="1"/>
       <c r="V61" s="2"/>
-    </row>
-    <row r="62" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R62" s="1"/>
-      <c r="U62" s="2"/>
+      <c r="W61" s="2"/>
+    </row>
+    <row r="62" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S62" s="1"/>
       <c r="V62" s="2"/>
-    </row>
-    <row r="63" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R63" s="1"/>
-      <c r="U63" s="2"/>
+      <c r="W62" s="2"/>
+    </row>
+    <row r="63" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S63" s="1"/>
       <c r="V63" s="2"/>
-    </row>
-    <row r="64" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R64" s="1"/>
-      <c r="U64" s="2"/>
+      <c r="W63" s="2"/>
+    </row>
+    <row r="64" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S64" s="1"/>
       <c r="V64" s="2"/>
-    </row>
-    <row r="65" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R65" s="1"/>
-      <c r="U65" s="2"/>
+      <c r="W64" s="2"/>
+    </row>
+    <row r="65" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S65" s="1"/>
       <c r="V65" s="2"/>
-    </row>
-    <row r="66" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R66" s="1"/>
-      <c r="U66" s="2"/>
+      <c r="W65" s="2"/>
+    </row>
+    <row r="66" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S66" s="1"/>
       <c r="V66" s="2"/>
-    </row>
-    <row r="67" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R67" s="1"/>
-    </row>
-    <row r="68" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R68" s="1"/>
-      <c r="U68" s="2"/>
+      <c r="W66" s="2"/>
+    </row>
+    <row r="67" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S67" s="1"/>
+    </row>
+    <row r="68" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S68" s="1"/>
       <c r="V68" s="2"/>
-    </row>
-    <row r="69" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R69" s="1"/>
-      <c r="U69" s="2"/>
+      <c r="W68" s="2"/>
+    </row>
+    <row r="69" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S69" s="1"/>
       <c r="V69" s="2"/>
-    </row>
-    <row r="70" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R70" s="1"/>
-      <c r="U70" s="2"/>
+      <c r="W69" s="2"/>
+    </row>
+    <row r="70" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S70" s="1"/>
       <c r="V70" s="2"/>
-    </row>
-    <row r="71" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R71" s="1"/>
-      <c r="U71" s="2"/>
+      <c r="W70" s="2"/>
+    </row>
+    <row r="71" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S71" s="1"/>
       <c r="V71" s="2"/>
-    </row>
-    <row r="72" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R72" s="1"/>
-      <c r="U72" s="2"/>
+      <c r="W71" s="2"/>
+    </row>
+    <row r="72" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S72" s="1"/>
       <c r="V72" s="2"/>
-    </row>
-    <row r="73" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R73" s="1"/>
-      <c r="U73" s="2"/>
+      <c r="W72" s="2"/>
+    </row>
+    <row r="73" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S73" s="1"/>
       <c r="V73" s="2"/>
-    </row>
-    <row r="74" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R74" s="1"/>
-      <c r="U74" s="2"/>
+      <c r="W73" s="2"/>
+    </row>
+    <row r="74" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S74" s="1"/>
       <c r="V74" s="2"/>
-    </row>
-    <row r="75" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R75" s="1"/>
-      <c r="U75" s="2"/>
+      <c r="W74" s="2"/>
+    </row>
+    <row r="75" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S75" s="1"/>
       <c r="V75" s="2"/>
-    </row>
-    <row r="76" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R76" s="1"/>
-      <c r="U76" s="2"/>
+      <c r="W75" s="2"/>
+    </row>
+    <row r="76" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S76" s="1"/>
       <c r="V76" s="2"/>
-    </row>
-    <row r="77" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R77" s="1"/>
-      <c r="U77" s="2"/>
+      <c r="W76" s="2"/>
+    </row>
+    <row r="77" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S77" s="1"/>
       <c r="V77" s="2"/>
-    </row>
-    <row r="78" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R78" s="1"/>
-    </row>
-    <row r="79" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R79" s="1"/>
-      <c r="U79" s="2"/>
+      <c r="W77" s="2"/>
+    </row>
+    <row r="78" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S78" s="1"/>
+    </row>
+    <row r="79" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S79" s="1"/>
       <c r="V79" s="2"/>
-    </row>
-    <row r="80" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R80" s="1"/>
-      <c r="U80" s="2"/>
+      <c r="W79" s="2"/>
+    </row>
+    <row r="80" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S80" s="1"/>
       <c r="V80" s="2"/>
-    </row>
-    <row r="81" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R81" s="1"/>
-      <c r="U81" s="2"/>
+      <c r="W80" s="2"/>
+    </row>
+    <row r="81" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S81" s="1"/>
       <c r="V81" s="2"/>
-    </row>
-    <row r="82" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R82" s="1"/>
-      <c r="U82" s="2"/>
+      <c r="W81" s="2"/>
+    </row>
+    <row r="82" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S82" s="1"/>
       <c r="V82" s="2"/>
-    </row>
-    <row r="83" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R83" s="1"/>
-      <c r="U83" s="2"/>
+      <c r="W82" s="2"/>
+    </row>
+    <row r="83" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S83" s="1"/>
       <c r="V83" s="2"/>
-    </row>
-    <row r="84" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R84" s="1"/>
-      <c r="U84" s="2"/>
+      <c r="W83" s="2"/>
+    </row>
+    <row r="84" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S84" s="1"/>
       <c r="V84" s="2"/>
-    </row>
-    <row r="85" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R85" s="1"/>
-      <c r="U85" s="2"/>
+      <c r="W84" s="2"/>
+    </row>
+    <row r="85" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S85" s="1"/>
       <c r="V85" s="2"/>
-    </row>
-    <row r="86" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R86" s="1"/>
-      <c r="U86" s="2"/>
+      <c r="W85" s="2"/>
+    </row>
+    <row r="86" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S86" s="1"/>
       <c r="V86" s="2"/>
-    </row>
-    <row r="87" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R87" s="1"/>
-      <c r="U87" s="2"/>
+      <c r="W86" s="2"/>
+    </row>
+    <row r="87" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S87" s="1"/>
       <c r="V87" s="2"/>
-    </row>
-    <row r="88" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R88" s="1"/>
-      <c r="U88" s="2"/>
+      <c r="W87" s="2"/>
+    </row>
+    <row r="88" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S88" s="1"/>
       <c r="V88" s="2"/>
-    </row>
-    <row r="89" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R89" s="1"/>
-    </row>
-    <row r="90" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R90" s="1"/>
-      <c r="U90" s="2"/>
+      <c r="W88" s="2"/>
+    </row>
+    <row r="89" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S89" s="1"/>
+    </row>
+    <row r="90" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S90" s="1"/>
       <c r="V90" s="2"/>
-    </row>
-    <row r="91" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R91" s="1"/>
-      <c r="U91" s="2"/>
+      <c r="W90" s="2"/>
+    </row>
+    <row r="91" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S91" s="1"/>
       <c r="V91" s="2"/>
-    </row>
-    <row r="92" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R92" s="1"/>
-      <c r="U92" s="2"/>
+      <c r="W91" s="2"/>
+    </row>
+    <row r="92" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S92" s="1"/>
       <c r="V92" s="2"/>
-    </row>
-    <row r="93" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R93" s="1"/>
-      <c r="U93" s="2"/>
+      <c r="W92" s="2"/>
+    </row>
+    <row r="93" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S93" s="1"/>
       <c r="V93" s="2"/>
-    </row>
-    <row r="94" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R94" s="1"/>
-      <c r="U94" s="2"/>
+      <c r="W93" s="2"/>
+    </row>
+    <row r="94" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S94" s="1"/>
       <c r="V94" s="2"/>
-    </row>
-    <row r="95" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R95" s="1"/>
-      <c r="U95" s="2"/>
+      <c r="W94" s="2"/>
+    </row>
+    <row r="95" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S95" s="1"/>
       <c r="V95" s="2"/>
-    </row>
-    <row r="96" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R96" s="1"/>
-      <c r="U96" s="2"/>
+      <c r="W95" s="2"/>
+    </row>
+    <row r="96" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S96" s="1"/>
       <c r="V96" s="2"/>
-    </row>
-    <row r="97" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R97" s="1"/>
-      <c r="U97" s="2"/>
+      <c r="W96" s="2"/>
+    </row>
+    <row r="97" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S97" s="1"/>
       <c r="V97" s="2"/>
-    </row>
-    <row r="98" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R98" s="1"/>
-      <c r="U98" s="2"/>
+      <c r="W97" s="2"/>
+    </row>
+    <row r="98" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S98" s="1"/>
       <c r="V98" s="2"/>
-    </row>
-    <row r="99" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R99" s="1"/>
-      <c r="U99" s="2"/>
+      <c r="W98" s="2"/>
+    </row>
+    <row r="99" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S99" s="1"/>
       <c r="V99" s="2"/>
-    </row>
-    <row r="100" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R100" s="1"/>
-    </row>
-    <row r="101" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R101" s="1"/>
-      <c r="U101" s="2"/>
+      <c r="W99" s="2"/>
+    </row>
+    <row r="100" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S100" s="1"/>
+    </row>
+    <row r="101" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S101" s="1"/>
       <c r="V101" s="2"/>
-    </row>
-    <row r="102" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R102" s="1"/>
-      <c r="U102" s="2"/>
+      <c r="W101" s="2"/>
+    </row>
+    <row r="102" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S102" s="1"/>
       <c r="V102" s="2"/>
-    </row>
-    <row r="103" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R103" s="1"/>
-      <c r="U103" s="2"/>
+      <c r="W102" s="2"/>
+    </row>
+    <row r="103" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S103" s="1"/>
       <c r="V103" s="2"/>
-    </row>
-    <row r="104" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R104" s="1"/>
-      <c r="U104" s="2"/>
+      <c r="W103" s="2"/>
+    </row>
+    <row r="104" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S104" s="1"/>
       <c r="V104" s="2"/>
-    </row>
-    <row r="105" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R105" s="1"/>
-      <c r="U105" s="2"/>
+      <c r="W104" s="2"/>
+    </row>
+    <row r="105" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S105" s="1"/>
       <c r="V105" s="2"/>
-    </row>
-    <row r="106" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R106" s="1"/>
-      <c r="U106" s="2"/>
+      <c r="W105" s="2"/>
+    </row>
+    <row r="106" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S106" s="1"/>
       <c r="V106" s="2"/>
-    </row>
-    <row r="107" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R107" s="1"/>
-      <c r="U107" s="2"/>
+      <c r="W106" s="2"/>
+    </row>
+    <row r="107" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S107" s="1"/>
       <c r="V107" s="2"/>
-    </row>
-    <row r="108" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R108" s="1"/>
-      <c r="U108" s="2"/>
+      <c r="W107" s="2"/>
+    </row>
+    <row r="108" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S108" s="1"/>
       <c r="V108" s="2"/>
-    </row>
-    <row r="109" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R109" s="1"/>
-      <c r="U109" s="2"/>
+      <c r="W108" s="2"/>
+    </row>
+    <row r="109" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S109" s="1"/>
       <c r="V109" s="2"/>
-    </row>
-    <row r="110" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R110" s="1"/>
-      <c r="U110" s="2"/>
+      <c r="W109" s="2"/>
+    </row>
+    <row r="110" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S110" s="1"/>
       <c r="V110" s="2"/>
-    </row>
-    <row r="111" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R111" s="1"/>
-    </row>
-    <row r="112" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R112" s="1"/>
-      <c r="U112" s="2"/>
+      <c r="W110" s="2"/>
+    </row>
+    <row r="111" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S111" s="1"/>
+    </row>
+    <row r="112" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S112" s="1"/>
       <c r="V112" s="2"/>
-    </row>
-    <row r="113" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R113" s="1"/>
-      <c r="U113" s="2"/>
+      <c r="W112" s="2"/>
+    </row>
+    <row r="113" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S113" s="1"/>
       <c r="V113" s="2"/>
-    </row>
-    <row r="114" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R114" s="1"/>
-      <c r="U114" s="2"/>
+      <c r="W113" s="2"/>
+    </row>
+    <row r="114" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S114" s="1"/>
       <c r="V114" s="2"/>
-    </row>
-    <row r="115" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R115" s="1"/>
-      <c r="U115" s="2"/>
+      <c r="W114" s="2"/>
+    </row>
+    <row r="115" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S115" s="1"/>
       <c r="V115" s="2"/>
-    </row>
-    <row r="116" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R116" s="1"/>
-      <c r="U116" s="2"/>
+      <c r="W115" s="2"/>
+    </row>
+    <row r="116" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S116" s="1"/>
       <c r="V116" s="2"/>
-    </row>
-    <row r="117" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R117" s="1"/>
-      <c r="U117" s="2"/>
+      <c r="W116" s="2"/>
+    </row>
+    <row r="117" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S117" s="1"/>
       <c r="V117" s="2"/>
-    </row>
-    <row r="118" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R118" s="1"/>
-      <c r="U118" s="2"/>
+      <c r="W117" s="2"/>
+    </row>
+    <row r="118" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S118" s="1"/>
       <c r="V118" s="2"/>
-    </row>
-    <row r="119" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R119" s="1"/>
-      <c r="U119" s="2"/>
+      <c r="W118" s="2"/>
+    </row>
+    <row r="119" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S119" s="1"/>
       <c r="V119" s="2"/>
-    </row>
-    <row r="120" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R120" s="1"/>
-      <c r="U120" s="2"/>
+      <c r="W119" s="2"/>
+    </row>
+    <row r="120" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S120" s="1"/>
       <c r="V120" s="2"/>
-    </row>
-    <row r="121" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R121" s="1"/>
-      <c r="U121" s="2"/>
+      <c r="W120" s="2"/>
+    </row>
+    <row r="121" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S121" s="1"/>
       <c r="V121" s="2"/>
-    </row>
-    <row r="122" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R122" s="1"/>
-    </row>
-    <row r="123" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R123" s="1"/>
-      <c r="U123" s="2"/>
+      <c r="W121" s="2"/>
+    </row>
+    <row r="122" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S122" s="1"/>
+    </row>
+    <row r="123" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S123" s="1"/>
       <c r="V123" s="2"/>
-    </row>
-    <row r="124" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R124" s="1"/>
-      <c r="U124" s="2"/>
+      <c r="W123" s="2"/>
+    </row>
+    <row r="124" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S124" s="1"/>
       <c r="V124" s="2"/>
-    </row>
-    <row r="125" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R125" s="1"/>
-      <c r="U125" s="2"/>
+      <c r="W124" s="2"/>
+    </row>
+    <row r="125" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S125" s="1"/>
       <c r="V125" s="2"/>
-    </row>
-    <row r="126" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R126" s="1"/>
-      <c r="U126" s="2"/>
+      <c r="W125" s="2"/>
+    </row>
+    <row r="126" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S126" s="1"/>
       <c r="V126" s="2"/>
-    </row>
-    <row r="127" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R127" s="1"/>
-      <c r="U127" s="2"/>
+      <c r="W126" s="2"/>
+    </row>
+    <row r="127" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S127" s="1"/>
       <c r="V127" s="2"/>
-    </row>
-    <row r="128" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R128" s="1"/>
-      <c r="U128" s="2"/>
+      <c r="W127" s="2"/>
+    </row>
+    <row r="128" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S128" s="1"/>
       <c r="V128" s="2"/>
-    </row>
-    <row r="129" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R129" s="1"/>
-      <c r="U129" s="2"/>
+      <c r="W128" s="2"/>
+    </row>
+    <row r="129" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S129" s="1"/>
       <c r="V129" s="2"/>
-    </row>
-    <row r="130" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R130" s="1"/>
-      <c r="U130" s="2"/>
+      <c r="W129" s="2"/>
+    </row>
+    <row r="130" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S130" s="1"/>
       <c r="V130" s="2"/>
-    </row>
-    <row r="131" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R131" s="1"/>
-      <c r="U131" s="2"/>
+      <c r="W130" s="2"/>
+    </row>
+    <row r="131" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S131" s="1"/>
       <c r="V131" s="2"/>
-    </row>
-    <row r="132" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R132" s="1"/>
-      <c r="U132" s="2"/>
+      <c r="W131" s="2"/>
+    </row>
+    <row r="132" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S132" s="1"/>
       <c r="V132" s="2"/>
-    </row>
-    <row r="133" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R133" s="1"/>
-    </row>
-    <row r="134" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R134" s="1"/>
-      <c r="U134" s="2"/>
+      <c r="W132" s="2"/>
+    </row>
+    <row r="133" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S133" s="1"/>
+    </row>
+    <row r="134" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S134" s="1"/>
       <c r="V134" s="2"/>
-    </row>
-    <row r="135" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R135" s="1"/>
-      <c r="U135" s="2"/>
+      <c r="W134" s="2"/>
+    </row>
+    <row r="135" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S135" s="1"/>
       <c r="V135" s="2"/>
-    </row>
-    <row r="136" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R136" s="1"/>
-      <c r="U136" s="2"/>
+      <c r="W135" s="2"/>
+    </row>
+    <row r="136" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S136" s="1"/>
       <c r="V136" s="2"/>
-    </row>
-    <row r="137" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R137" s="1"/>
-      <c r="U137" s="2"/>
+      <c r="W136" s="2"/>
+    </row>
+    <row r="137" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S137" s="1"/>
       <c r="V137" s="2"/>
-    </row>
-    <row r="138" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R138" s="1"/>
-      <c r="U138" s="2"/>
+      <c r="W137" s="2"/>
+    </row>
+    <row r="138" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S138" s="1"/>
       <c r="V138" s="2"/>
-    </row>
-    <row r="139" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R139" s="1"/>
-      <c r="U139" s="2"/>
+      <c r="W138" s="2"/>
+    </row>
+    <row r="139" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S139" s="1"/>
       <c r="V139" s="2"/>
-    </row>
-    <row r="140" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R140" s="1"/>
-      <c r="U140" s="2"/>
+      <c r="W139" s="2"/>
+    </row>
+    <row r="140" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S140" s="1"/>
       <c r="V140" s="2"/>
-    </row>
-    <row r="141" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R141" s="1"/>
-      <c r="U141" s="2"/>
+      <c r="W140" s="2"/>
+    </row>
+    <row r="141" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S141" s="1"/>
       <c r="V141" s="2"/>
-    </row>
-    <row r="142" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R142" s="1"/>
-      <c r="U142" s="2"/>
+      <c r="W141" s="2"/>
+    </row>
+    <row r="142" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S142" s="1"/>
       <c r="V142" s="2"/>
-    </row>
-    <row r="143" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R143" s="1"/>
-      <c r="U143" s="2"/>
+      <c r="W142" s="2"/>
+    </row>
+    <row r="143" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S143" s="1"/>
       <c r="V143" s="2"/>
-    </row>
-    <row r="144" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R144" s="1"/>
-    </row>
-    <row r="145" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R145" s="1"/>
-      <c r="U145" s="2"/>
+      <c r="W143" s="2"/>
+    </row>
+    <row r="144" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S144" s="1"/>
+    </row>
+    <row r="145" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S145" s="1"/>
       <c r="V145" s="2"/>
-    </row>
-    <row r="146" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R146" s="1"/>
-      <c r="U146" s="2"/>
+      <c r="W145" s="2"/>
+    </row>
+    <row r="146" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S146" s="1"/>
       <c r="V146" s="2"/>
-    </row>
-    <row r="147" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R147" s="1"/>
-      <c r="U147" s="2"/>
+      <c r="W146" s="2"/>
+    </row>
+    <row r="147" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S147" s="1"/>
       <c r="V147" s="2"/>
-    </row>
-    <row r="148" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R148" s="1"/>
-      <c r="U148" s="2"/>
+      <c r="W147" s="2"/>
+    </row>
+    <row r="148" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S148" s="1"/>
       <c r="V148" s="2"/>
-    </row>
-    <row r="149" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R149" s="1"/>
-      <c r="U149" s="2"/>
+      <c r="W148" s="2"/>
+    </row>
+    <row r="149" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S149" s="1"/>
       <c r="V149" s="2"/>
-    </row>
-    <row r="150" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R150" s="1"/>
-      <c r="U150" s="2"/>
+      <c r="W149" s="2"/>
+    </row>
+    <row r="150" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S150" s="1"/>
       <c r="V150" s="2"/>
-    </row>
-    <row r="151" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R151" s="1"/>
-      <c r="U151" s="2"/>
+      <c r="W150" s="2"/>
+    </row>
+    <row r="151" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S151" s="1"/>
       <c r="V151" s="2"/>
-    </row>
-    <row r="152" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R152" s="1"/>
-      <c r="U152" s="2"/>
+      <c r="W151" s="2"/>
+    </row>
+    <row r="152" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S152" s="1"/>
       <c r="V152" s="2"/>
-    </row>
-    <row r="153" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R153" s="1"/>
-      <c r="U153" s="2"/>
+      <c r="W152" s="2"/>
+    </row>
+    <row r="153" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S153" s="1"/>
       <c r="V153" s="2"/>
-    </row>
-    <row r="154" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R154" s="1"/>
-      <c r="U154" s="2"/>
+      <c r="W153" s="2"/>
+    </row>
+    <row r="154" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S154" s="1"/>
       <c r="V154" s="2"/>
-    </row>
-    <row r="155" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R155" s="1"/>
-    </row>
-    <row r="156" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R156" s="1"/>
-      <c r="U156" s="2"/>
+      <c r="W154" s="2"/>
+    </row>
+    <row r="155" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S155" s="1"/>
+    </row>
+    <row r="156" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S156" s="1"/>
       <c r="V156" s="2"/>
-    </row>
-    <row r="157" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R157" s="1"/>
-      <c r="U157" s="2"/>
+      <c r="W156" s="2"/>
+    </row>
+    <row r="157" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S157" s="1"/>
       <c r="V157" s="2"/>
-    </row>
-    <row r="158" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R158" s="1"/>
-      <c r="U158" s="2"/>
+      <c r="W157" s="2"/>
+    </row>
+    <row r="158" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S158" s="1"/>
       <c r="V158" s="2"/>
-    </row>
-    <row r="159" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R159" s="1"/>
-      <c r="U159" s="2"/>
+      <c r="W158" s="2"/>
+    </row>
+    <row r="159" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S159" s="1"/>
       <c r="V159" s="2"/>
-    </row>
-    <row r="160" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R160" s="1"/>
-      <c r="U160" s="2"/>
+      <c r="W159" s="2"/>
+    </row>
+    <row r="160" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S160" s="1"/>
       <c r="V160" s="2"/>
-    </row>
-    <row r="161" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R161" s="1"/>
-      <c r="U161" s="2"/>
+      <c r="W160" s="2"/>
+    </row>
+    <row r="161" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S161" s="1"/>
       <c r="V161" s="2"/>
-    </row>
-    <row r="162" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R162" s="1"/>
-      <c r="U162" s="2"/>
+      <c r="W161" s="2"/>
+    </row>
+    <row r="162" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S162" s="1"/>
       <c r="V162" s="2"/>
-    </row>
-    <row r="163" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R163" s="1"/>
-      <c r="U163" s="2"/>
+      <c r="W162" s="2"/>
+    </row>
+    <row r="163" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S163" s="1"/>
       <c r="V163" s="2"/>
-    </row>
-    <row r="164" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R164" s="1"/>
-      <c r="U164" s="2"/>
+      <c r="W163" s="2"/>
+    </row>
+    <row r="164" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S164" s="1"/>
       <c r="V164" s="2"/>
-    </row>
-    <row r="165" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R165" s="1"/>
-      <c r="U165" s="2"/>
+      <c r="W164" s="2"/>
+    </row>
+    <row r="165" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S165" s="1"/>
       <c r="V165" s="2"/>
-    </row>
-    <row r="166" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R166" s="1"/>
-    </row>
-    <row r="167" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R167" s="1"/>
-      <c r="U167" s="2"/>
+      <c r="W165" s="2"/>
+    </row>
+    <row r="166" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S166" s="1"/>
+    </row>
+    <row r="167" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S167" s="1"/>
       <c r="V167" s="2"/>
-    </row>
-    <row r="168" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R168" s="1"/>
-      <c r="U168" s="2"/>
+      <c r="W167" s="2"/>
+    </row>
+    <row r="168" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S168" s="1"/>
       <c r="V168" s="2"/>
-    </row>
-    <row r="169" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R169" s="1"/>
-      <c r="U169" s="2"/>
+      <c r="W168" s="2"/>
+    </row>
+    <row r="169" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S169" s="1"/>
       <c r="V169" s="2"/>
-    </row>
-    <row r="170" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R170" s="1"/>
-      <c r="U170" s="2"/>
+      <c r="W169" s="2"/>
+    </row>
+    <row r="170" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S170" s="1"/>
       <c r="V170" s="2"/>
-    </row>
-    <row r="171" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R171" s="1"/>
-      <c r="U171" s="2"/>
+      <c r="W170" s="2"/>
+    </row>
+    <row r="171" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S171" s="1"/>
       <c r="V171" s="2"/>
-    </row>
-    <row r="172" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R172" s="1"/>
-      <c r="U172" s="2"/>
+      <c r="W171" s="2"/>
+    </row>
+    <row r="172" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S172" s="1"/>
       <c r="V172" s="2"/>
-    </row>
-    <row r="173" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R173" s="1"/>
-      <c r="U173" s="2"/>
+      <c r="W172" s="2"/>
+    </row>
+    <row r="173" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S173" s="1"/>
       <c r="V173" s="2"/>
-    </row>
-    <row r="174" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R174" s="1"/>
-      <c r="U174" s="2"/>
+      <c r="W173" s="2"/>
+    </row>
+    <row r="174" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S174" s="1"/>
       <c r="V174" s="2"/>
-    </row>
-    <row r="175" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R175" s="1"/>
-      <c r="U175" s="2"/>
+      <c r="W174" s="2"/>
+    </row>
+    <row r="175" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S175" s="1"/>
       <c r="V175" s="2"/>
-    </row>
-    <row r="176" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R176" s="1"/>
-      <c r="U176" s="2"/>
+      <c r="W175" s="2"/>
+    </row>
+    <row r="176" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S176" s="1"/>
       <c r="V176" s="2"/>
-    </row>
-    <row r="177" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R177" s="1"/>
-    </row>
-    <row r="178" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R178" s="1"/>
-      <c r="U178" s="2"/>
+      <c r="W176" s="2"/>
+    </row>
+    <row r="177" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S177" s="1"/>
+    </row>
+    <row r="178" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S178" s="1"/>
       <c r="V178" s="2"/>
-    </row>
-    <row r="179" spans="18:22" x14ac:dyDescent="0.35">
-      <c r="R179" s="1"/>
-      <c r="U179" s="2"/>
+      <c r="W178" s="2"/>
+    </row>
+    <row r="179" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S179" s="1"/>
       <c r="V179" s="2"/>
+      <c r="W179" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
